--- a/natmiOut/OldD4/LR-pairs_lrc2p/Fgf2-Sdc2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Fgf2-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +95,6 @@
   </si>
   <si>
     <t>Sdc2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>10.9842042979946</v>
+        <v>0.7006100000000001</v>
       </c>
       <c r="H2">
-        <v>10.9842042979946</v>
+        <v>2.10183</v>
       </c>
       <c r="I2">
-        <v>0.731981969108615</v>
+        <v>0.04034574880304091</v>
       </c>
       <c r="J2">
-        <v>0.731981969108615</v>
+        <v>0.04392235262467</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.29867130180628</v>
+        <v>1.511114</v>
       </c>
       <c r="N2">
-        <v>1.29867130180628</v>
+        <v>4.533342</v>
       </c>
       <c r="O2">
-        <v>0.02037987186715166</v>
+        <v>0.02241848840500565</v>
       </c>
       <c r="P2">
-        <v>0.02037987186715166</v>
+        <v>0.02483957450832654</v>
       </c>
       <c r="Q2">
-        <v>14.26487089498278</v>
+        <v>1.05870157954</v>
       </c>
       <c r="R2">
-        <v>14.26487089498278</v>
+        <v>9.52831421586</v>
       </c>
       <c r="S2">
-        <v>0.01491769873949894</v>
+        <v>0.000904490701732243</v>
       </c>
       <c r="T2">
-        <v>0.01491769873949894</v>
+        <v>0.001091012550601482</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>10.9842042979946</v>
+        <v>0.7006100000000001</v>
       </c>
       <c r="H3">
-        <v>10.9842042979946</v>
+        <v>2.10183</v>
       </c>
       <c r="I3">
-        <v>0.731981969108615</v>
+        <v>0.04034574880304091</v>
       </c>
       <c r="J3">
-        <v>0.731981969108615</v>
+        <v>0.04392235262467</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>42.7152766063691</v>
+        <v>46.15376066666666</v>
       </c>
       <c r="N3">
-        <v>42.7152766063691</v>
+        <v>138.461282</v>
       </c>
       <c r="O3">
-        <v>0.6703250181912453</v>
+        <v>0.6847250097299556</v>
       </c>
       <c r="P3">
-        <v>0.6703250181912453</v>
+        <v>0.7586719313825014</v>
       </c>
       <c r="Q3">
-        <v>469.1933248897077</v>
+        <v>32.33578626067333</v>
       </c>
       <c r="R3">
-        <v>469.1933248897077</v>
+        <v>291.02207634606</v>
       </c>
       <c r="S3">
-        <v>0.4906658267583959</v>
+        <v>0.02762574324172453</v>
       </c>
       <c r="T3">
-        <v>0.4906658267583959</v>
+        <v>0.03332265609662167</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +649,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>10.9842042979946</v>
+        <v>0.7006100000000001</v>
       </c>
       <c r="H4">
-        <v>10.9842042979946</v>
+        <v>2.10183</v>
       </c>
       <c r="I4">
-        <v>0.731981969108615</v>
+        <v>0.04034574880304091</v>
       </c>
       <c r="J4">
-        <v>0.731981969108615</v>
+        <v>0.04392235262467</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>19.7092840273248</v>
+        <v>0.030318</v>
       </c>
       <c r="N4">
-        <v>19.7092840273248</v>
+        <v>0.09095399999999999</v>
       </c>
       <c r="O4">
-        <v>0.309295109941603</v>
+        <v>0.0004497898447522563</v>
       </c>
       <c r="P4">
-        <v>0.309295109941603</v>
+        <v>0.000498364928088446</v>
       </c>
       <c r="Q4">
-        <v>216.4908023233374</v>
+        <v>0.02124109398</v>
       </c>
       <c r="R4">
-        <v>216.4908023233374</v>
+        <v>0.19116984582</v>
       </c>
       <c r="S4">
-        <v>0.2263984436107201</v>
+        <v>1.81471080905333E-05</v>
       </c>
       <c r="T4">
-        <v>0.2263984436107201</v>
+        <v>2.188936010726903E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>4.02190891456284</v>
+        <v>0.7006100000000001</v>
       </c>
       <c r="H5">
-        <v>4.02190891456284</v>
+        <v>2.10183</v>
       </c>
       <c r="I5">
-        <v>0.268018030891385</v>
+        <v>0.04034574880304091</v>
       </c>
       <c r="J5">
-        <v>0.268018030891385</v>
+        <v>0.04392235262467</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.29867130180628</v>
+        <v>19.7096195</v>
       </c>
       <c r="N5">
-        <v>1.29867130180628</v>
+        <v>39.419239</v>
       </c>
       <c r="O5">
-        <v>0.02037987186715166</v>
+        <v>0.2924067120202865</v>
       </c>
       <c r="P5">
-        <v>0.02037987186715166</v>
+        <v>0.2159901291810835</v>
       </c>
       <c r="Q5">
-        <v>5.223137685821607</v>
+        <v>13.808756517895</v>
       </c>
       <c r="R5">
-        <v>5.223137685821607</v>
+        <v>82.85253910737001</v>
       </c>
       <c r="S5">
-        <v>0.005462173127652721</v>
+        <v>0.0117973677514936</v>
       </c>
       <c r="T5">
-        <v>0.005462173127652721</v>
+        <v>0.009486794617339577</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.02190891456284</v>
+        <v>11.86561333333333</v>
       </c>
       <c r="H6">
-        <v>4.02190891456284</v>
+        <v>35.59684</v>
       </c>
       <c r="I6">
-        <v>0.268018030891385</v>
+        <v>0.6833003453286129</v>
       </c>
       <c r="J6">
-        <v>0.268018030891385</v>
+        <v>0.7438741281663874</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>42.7152766063691</v>
+        <v>1.511114</v>
       </c>
       <c r="N6">
-        <v>42.7152766063691</v>
+        <v>4.533342</v>
       </c>
       <c r="O6">
-        <v>0.6703250181912453</v>
+        <v>0.02241848840500565</v>
       </c>
       <c r="P6">
-        <v>0.6703250181912453</v>
+        <v>0.02483957450832654</v>
       </c>
       <c r="Q6">
-        <v>171.7969517711734</v>
+        <v>17.93029442658667</v>
       </c>
       <c r="R6">
-        <v>171.7969517711734</v>
+        <v>161.37264983928</v>
       </c>
       <c r="S6">
-        <v>0.1796591914328494</v>
+        <v>0.01531856086888586</v>
       </c>
       <c r="T6">
-        <v>0.1796591914328494</v>
+        <v>0.01847751683140543</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +835,929 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.02190891456284</v>
+        <v>11.86561333333333</v>
       </c>
       <c r="H7">
-        <v>4.02190891456284</v>
+        <v>35.59684</v>
       </c>
       <c r="I7">
-        <v>0.268018030891385</v>
+        <v>0.6833003453286129</v>
       </c>
       <c r="J7">
-        <v>0.268018030891385</v>
+        <v>0.7438741281663874</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.7092840273248</v>
+        <v>46.15376066666666</v>
       </c>
       <c r="N7">
-        <v>19.7092840273248</v>
+        <v>138.461282</v>
       </c>
       <c r="O7">
-        <v>0.309295109941603</v>
+        <v>0.6847250097299556</v>
       </c>
       <c r="P7">
-        <v>0.309295109941603</v>
+        <v>0.7586719313825014</v>
       </c>
       <c r="Q7">
-        <v>79.26894512914861</v>
+        <v>547.6426779498755</v>
       </c>
       <c r="R7">
-        <v>79.26894512914861</v>
+        <v>4928.784101548879</v>
       </c>
       <c r="S7">
-        <v>0.08289666633088287</v>
+        <v>0.4678728356036165</v>
       </c>
       <c r="T7">
-        <v>0.08289666633088287</v>
+        <v>0.5643564215214676</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>11.86561333333333</v>
+      </c>
+      <c r="H8">
+        <v>35.59684</v>
+      </c>
+      <c r="I8">
+        <v>0.6833003453286129</v>
+      </c>
+      <c r="J8">
+        <v>0.7438741281663874</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.030318</v>
+      </c>
+      <c r="N8">
+        <v>0.09095399999999999</v>
+      </c>
+      <c r="O8">
+        <v>0.0004497898447522563</v>
+      </c>
+      <c r="P8">
+        <v>0.000498364928088446</v>
+      </c>
+      <c r="Q8">
+        <v>0.35974166504</v>
+      </c>
+      <c r="R8">
+        <v>3.23767498536</v>
+      </c>
+      <c r="S8">
+        <v>0.00030734155624452</v>
+      </c>
+      <c r="T8">
+        <v>0.0003707207763904971</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>11.86561333333333</v>
+      </c>
+      <c r="H9">
+        <v>35.59684</v>
+      </c>
+      <c r="I9">
+        <v>0.6833003453286129</v>
+      </c>
+      <c r="J9">
+        <v>0.7438741281663874</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>19.7096195</v>
+      </c>
+      <c r="N9">
+        <v>39.419239</v>
+      </c>
+      <c r="O9">
+        <v>0.2924067120202865</v>
+      </c>
+      <c r="P9">
+        <v>0.2159901291810835</v>
+      </c>
+      <c r="Q9">
+        <v>233.8667239341267</v>
+      </c>
+      <c r="R9">
+        <v>1403.20034360476</v>
+      </c>
+      <c r="S9">
+        <v>0.199801607299866</v>
+      </c>
+      <c r="T9">
+        <v>0.1606694690371239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.4571846666666666</v>
+      </c>
+      <c r="H10">
+        <v>1.371554</v>
+      </c>
+      <c r="I10">
+        <v>0.02632771116303695</v>
+      </c>
+      <c r="J10">
+        <v>0.02866163221182333</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.511114</v>
+      </c>
+      <c r="N10">
+        <v>4.533342</v>
+      </c>
+      <c r="O10">
+        <v>0.02241848840500565</v>
+      </c>
+      <c r="P10">
+        <v>0.02483957450832654</v>
+      </c>
+      <c r="Q10">
+        <v>0.6908581503853333</v>
+      </c>
+      <c r="R10">
+        <v>6.217723353468</v>
+      </c>
+      <c r="S10">
+        <v>0.0005902274874388816</v>
+      </c>
+      <c r="T10">
+        <v>0.0007119427488558377</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.4571846666666666</v>
+      </c>
+      <c r="H11">
+        <v>1.371554</v>
+      </c>
+      <c r="I11">
+        <v>0.02632771116303695</v>
+      </c>
+      <c r="J11">
+        <v>0.02866163221182333</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>46.15376066666666</v>
+      </c>
+      <c r="N11">
+        <v>138.461282</v>
+      </c>
+      <c r="O11">
+        <v>0.6847250097299556</v>
+      </c>
+      <c r="P11">
+        <v>0.7586719313825014</v>
+      </c>
+      <c r="Q11">
+        <v>21.10079168580311</v>
+      </c>
+      <c r="R11">
+        <v>189.907125172228</v>
+      </c>
+      <c r="S11">
+        <v>0.01802724228227794</v>
+      </c>
+      <c r="T11">
+        <v>0.02174477586671892</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.4571846666666666</v>
+      </c>
+      <c r="H12">
+        <v>1.371554</v>
+      </c>
+      <c r="I12">
+        <v>0.02632771116303695</v>
+      </c>
+      <c r="J12">
+        <v>0.02866163221182333</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.030318</v>
+      </c>
+      <c r="N12">
+        <v>0.09095399999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.0004497898447522563</v>
+      </c>
+      <c r="P12">
+        <v>0.000498364928088446</v>
+      </c>
+      <c r="Q12">
+        <v>0.013860924724</v>
+      </c>
+      <c r="R12">
+        <v>0.124748322516</v>
+      </c>
+      <c r="S12">
+        <v>1.184193711670464E-05</v>
+      </c>
+      <c r="T12">
+        <v>1.428395227614282E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.4571846666666666</v>
+      </c>
+      <c r="H13">
+        <v>1.371554</v>
+      </c>
+      <c r="I13">
+        <v>0.02632771116303695</v>
+      </c>
+      <c r="J13">
+        <v>0.02866163221182333</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>19.7096195</v>
+      </c>
+      <c r="N13">
+        <v>39.419239</v>
+      </c>
+      <c r="O13">
+        <v>0.2924067120202865</v>
+      </c>
+      <c r="P13">
+        <v>0.2159901291810835</v>
+      </c>
+      <c r="Q13">
+        <v>9.010935821234334</v>
+      </c>
+      <c r="R13">
+        <v>54.065614927406</v>
+      </c>
+      <c r="S13">
+        <v>0.007698399456203427</v>
+      </c>
+      <c r="T13">
+        <v>0.006190629643972426</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.09960200000000001</v>
+      </c>
+      <c r="H14">
+        <v>0.298806</v>
+      </c>
+      <c r="I14">
+        <v>0.005735740672100712</v>
+      </c>
+      <c r="J14">
+        <v>0.006244207427987584</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.511114</v>
+      </c>
+      <c r="N14">
+        <v>4.533342</v>
+      </c>
+      <c r="O14">
+        <v>0.02241848840500565</v>
+      </c>
+      <c r="P14">
+        <v>0.02483957450832654</v>
+      </c>
+      <c r="Q14">
+        <v>0.150509976628</v>
+      </c>
+      <c r="R14">
+        <v>1.354589789652</v>
+      </c>
+      <c r="S14">
+        <v>0.0001285866357516091</v>
+      </c>
+      <c r="T14">
+        <v>0.0001551034556529436</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.09960200000000001</v>
+      </c>
+      <c r="H15">
+        <v>0.298806</v>
+      </c>
+      <c r="I15">
+        <v>0.005735740672100712</v>
+      </c>
+      <c r="J15">
+        <v>0.006244207427987584</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>46.15376066666666</v>
+      </c>
+      <c r="N15">
+        <v>138.461282</v>
+      </c>
+      <c r="O15">
+        <v>0.6847250097299556</v>
+      </c>
+      <c r="P15">
+        <v>0.7586719313825014</v>
+      </c>
+      <c r="Q15">
+        <v>4.597006869921334</v>
+      </c>
+      <c r="R15">
+        <v>41.373061829292</v>
+      </c>
+      <c r="S15">
+        <v>0.003927405087512662</v>
+      </c>
+      <c r="T15">
+        <v>0.004737304909344302</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.09960200000000001</v>
+      </c>
+      <c r="H16">
+        <v>0.298806</v>
+      </c>
+      <c r="I16">
+        <v>0.005735740672100712</v>
+      </c>
+      <c r="J16">
+        <v>0.006244207427987584</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.030318</v>
+      </c>
+      <c r="N16">
+        <v>0.09095399999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.0004497898447522563</v>
+      </c>
+      <c r="P16">
+        <v>0.000498364928088446</v>
+      </c>
+      <c r="Q16">
+        <v>0.003019733436</v>
+      </c>
+      <c r="R16">
+        <v>0.027177600924</v>
+      </c>
+      <c r="S16">
+        <v>2.579877906443382E-06</v>
+      </c>
+      <c r="T16">
+        <v>3.111893985818373E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.09960200000000001</v>
+      </c>
+      <c r="H17">
+        <v>0.298806</v>
+      </c>
+      <c r="I17">
+        <v>0.005735740672100712</v>
+      </c>
+      <c r="J17">
+        <v>0.006244207427987584</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>19.7096195</v>
+      </c>
+      <c r="N17">
+        <v>39.419239</v>
+      </c>
+      <c r="O17">
+        <v>0.2924067120202865</v>
+      </c>
+      <c r="P17">
+        <v>0.2159901291810835</v>
+      </c>
+      <c r="Q17">
+        <v>1.963117521439</v>
+      </c>
+      <c r="R17">
+        <v>11.778705128634</v>
+      </c>
+      <c r="S17">
+        <v>0.001677169070929998</v>
+      </c>
+      <c r="T17">
+        <v>0.00134868716900452</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>4.2421405</v>
+      </c>
+      <c r="H18">
+        <v>8.484280999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.2442904540332086</v>
+      </c>
+      <c r="J18">
+        <v>0.1772976795691316</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.511114</v>
+      </c>
+      <c r="N18">
+        <v>4.533342</v>
+      </c>
+      <c r="O18">
+        <v>0.02241848840500565</v>
+      </c>
+      <c r="P18">
+        <v>0.02483957450832654</v>
+      </c>
+      <c r="Q18">
+        <v>6.410357899517</v>
+      </c>
+      <c r="R18">
+        <v>38.462147397102</v>
+      </c>
+      <c r="S18">
+        <v>0.005476622711197053</v>
+      </c>
+      <c r="T18">
+        <v>0.004403998921810847</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>4.2421405</v>
+      </c>
+      <c r="H19">
+        <v>8.484280999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.2442904540332086</v>
+      </c>
+      <c r="J19">
+        <v>0.1772976795691316</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>46.15376066666666</v>
+      </c>
+      <c r="N19">
+        <v>138.461282</v>
+      </c>
+      <c r="O19">
+        <v>0.6847250097299556</v>
+      </c>
+      <c r="P19">
+        <v>0.7586719313825014</v>
+      </c>
+      <c r="Q19">
+        <v>195.7907373513737</v>
+      </c>
+      <c r="R19">
+        <v>1174.744424108242</v>
+      </c>
+      <c r="S19">
+        <v>0.1672717835148241</v>
+      </c>
+      <c r="T19">
+        <v>0.1345107729883489</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>4.2421405</v>
+      </c>
+      <c r="H20">
+        <v>8.484280999999999</v>
+      </c>
+      <c r="I20">
+        <v>0.2442904540332086</v>
+      </c>
+      <c r="J20">
+        <v>0.1772976795691316</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.030318</v>
+      </c>
+      <c r="N20">
+        <v>0.09095399999999999</v>
+      </c>
+      <c r="O20">
+        <v>0.0004497898447522563</v>
+      </c>
+      <c r="P20">
+        <v>0.000498364928088446</v>
+      </c>
+      <c r="Q20">
+        <v>0.128613215679</v>
+      </c>
+      <c r="R20">
+        <v>0.7716792940739999</v>
+      </c>
+      <c r="S20">
+        <v>0.0001098793653940551</v>
+      </c>
+      <c r="T20">
+        <v>8.835894532871859E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>4.2421405</v>
+      </c>
+      <c r="H21">
+        <v>8.484280999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.2442904540332086</v>
+      </c>
+      <c r="J21">
+        <v>0.1772976795691316</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>19.7096195</v>
+      </c>
+      <c r="N21">
+        <v>39.419239</v>
+      </c>
+      <c r="O21">
+        <v>0.2924067120202865</v>
+      </c>
+      <c r="P21">
+        <v>0.2159901291810835</v>
+      </c>
+      <c r="Q21">
+        <v>83.61097512053975</v>
+      </c>
+      <c r="R21">
+        <v>334.443900482159</v>
+      </c>
+      <c r="S21">
+        <v>0.07143216844179348</v>
+      </c>
+      <c r="T21">
+        <v>0.03829454871364308</v>
       </c>
     </row>
   </sheetData>
